--- a/database_old/Trace_Report_WCS.xlsx
+++ b/database_old/Trace_Report_WCS.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A43D4717-F38B-415E-B82A-ADD8D88D8643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77B8709E-77A5-4380-8831-BF0C9105F37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="3045" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="4485" yWindow="2970" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$3:$N$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$4:$O$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>Initial</t>
   </si>
@@ -68,42 +68,48 @@
     <t>Destination City</t>
   </si>
   <si>
+    <t>ITFX</t>
+  </si>
+  <si>
+    <t>JOHNSTOWN</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Placed Actual</t>
+  </si>
+  <si>
     <t>MWCX</t>
   </si>
   <si>
-    <t>BIRMINGHAM</t>
-  </si>
-  <si>
-    <t>AL</t>
+    <t>LOVELAND</t>
+  </si>
+  <si>
+    <t>Junction Received</t>
+  </si>
+  <si>
+    <t>BNSF</t>
+  </si>
+  <si>
+    <t>MEMPHIS</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>VALDOSTA</t>
+  </si>
+  <si>
+    <t>GA</t>
   </si>
   <si>
     <t>Arrive In-Transit</t>
   </si>
   <si>
-    <t>LOVELAND</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>AOKX</t>
-  </si>
-  <si>
-    <t>COFFEYVILLE</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>MNLNPB</t>
-  </si>
-  <si>
-    <t>JOHNSTOWN</t>
-  </si>
-  <si>
-    <t>Placed Actual</t>
-  </si>
-  <si>
     <t>Gross Weight</t>
   </si>
   <si>
@@ -113,31 +119,40 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 05/12/2023 06:01:19 EDT, by WPJTOWN1.The search returned: 6 events.</t>
+    <t>Description unknown, completed 06/15/2023 06:00:44 EDT, by WPJTOWN1.The search returned: 8 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
+    <t>ITFX9725</t>
+  </si>
+  <si>
+    <t>ITFX9728</t>
+  </si>
+  <si>
     <t>MWCX102555</t>
   </si>
   <si>
-    <t>AOKX40622</t>
-  </si>
-  <si>
-    <t>AOKX40633</t>
-  </si>
-  <si>
-    <t>AOKX40683</t>
-  </si>
-  <si>
-    <t>AOKX40648</t>
-  </si>
-  <si>
-    <t>AOKX40646</t>
-  </si>
-  <si>
-    <t>2 On Hand</t>
+    <t>MWCX102276</t>
+  </si>
+  <si>
+    <t>MWCX102166</t>
+  </si>
+  <si>
+    <t>MWCX102330</t>
+  </si>
+  <si>
+    <t>MWCX102553</t>
+  </si>
+  <si>
+    <t>MWCX102328</t>
+  </si>
+  <si>
+    <t>1 CO</t>
+  </si>
+  <si>
+    <t>5 On Hand</t>
   </si>
 </sst>
 </file>
@@ -280,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +478,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FA459"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,10 +654,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -986,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K5" sqref="K5:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1030,7 @@
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -1013,344 +1042,436 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2">
-        <v>40648</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1236</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2">
-        <v>211960</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>211960</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
+      <c r="O4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>40646</v>
+        <v>9725</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>1236</v>
+        <v>1812</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L5" s="2">
-        <v>211760</v>
+        <v>202700</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>211760</v>
+        <v>202700</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>102555</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="2">
+        <v>9728</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1812</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6">
-        <v>281100</v>
-      </c>
-      <c r="M6">
-        <v>73600</v>
-      </c>
-      <c r="N6">
-        <v>207500</v>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2">
+        <v>202950</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>202950</v>
       </c>
       <c r="O6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>40622</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>102555</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7">
-        <v>1415</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1811</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7">
-        <v>188050</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>188050</v>
+      <c r="K7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="2">
+        <v>281100</v>
+      </c>
+      <c r="M7" s="2">
+        <v>73600</v>
+      </c>
+      <c r="N7" s="2">
+        <v>207500</v>
       </c>
       <c r="O7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>40633</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>102276</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8">
-        <v>1415</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1304</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L8">
-        <v>188050</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>188050</v>
+      <c r="K8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="2">
+        <v>280350</v>
+      </c>
+      <c r="M8" s="2">
+        <v>78900</v>
+      </c>
+      <c r="N8" s="2">
+        <v>201450</v>
       </c>
       <c r="O8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>102166</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1304</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="2">
+        <v>282400</v>
+      </c>
+      <c r="M9" s="2">
+        <v>82000</v>
+      </c>
+      <c r="N9" s="2">
+        <v>200400</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>102330</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1045</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
-        <v>40683</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="I10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="J10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="3">
+        <v>284850</v>
+      </c>
+      <c r="M10" s="3">
+        <v>79300</v>
+      </c>
+      <c r="N10" s="3">
+        <v>205550</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
+        <v>102328</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2248</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="4">
+        <v>280550</v>
+      </c>
+      <c r="M11" s="4">
+        <v>79500</v>
+      </c>
+      <c r="N11" s="4">
+        <v>201050</v>
+      </c>
+      <c r="O11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>102553</v>
+      </c>
+      <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>1344</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="J9" t="s">
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>1300</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
         <v>20</v>
       </c>
-      <c r="K9" t="s">
+      <c r="J12" t="s">
         <v>15</v>
       </c>
-      <c r="L9">
-        <v>188150</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>188150</v>
-      </c>
-      <c r="O9" t="s">
-        <v>32</v>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12">
+        <v>281050</v>
+      </c>
+      <c r="M12">
+        <v>73400</v>
+      </c>
+      <c r="N12">
+        <v>207650</v>
+      </c>
+      <c r="O12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:N9">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N9">
-      <sortCondition ref="D4:D9" customList="CO"/>
-      <sortCondition ref="H4:H9" customList="Placed Actual,Placed Construct"/>
-    </sortState>
-  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:O12">
+    <sortCondition ref="D5:D12" customList="CO"/>
+    <sortCondition ref="H5:H12" customList="Placed Actual,Placed Construct"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>